--- a/output/risk/BRN_osm_tc_HadGEM3-GC31-HM_risk.xlsx
+++ b/output/risk/BRN_osm_tc_HadGEM3-GC31-HM_risk.xlsx
@@ -547,67 +547,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.308199929936335e-08</v>
+        <v>0.0002613836608625687</v>
       </c>
       <c r="C2" t="n">
-        <v>1.261639985987267e-07</v>
+        <v>0.0005227673217251374</v>
       </c>
       <c r="D2" t="n">
-        <v>3.154099964968168e-07</v>
+        <v>0.001306918304312844</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853343590049637e-13</v>
+        <v>5.689106774013116e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570668718009927e-12</v>
+        <v>1.137821354802623e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>3.926671795024819e-12</v>
+        <v>2.844553387006558e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>5.915233501568305e-13</v>
+        <v>3.01847205585438e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.183046700313661e-12</v>
+        <v>6.03694411170876e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>2.957616750784153e-12</v>
+        <v>1.50923602792719e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>3.597639316848511e-12</v>
+        <v>8.057042106980676e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>7.195278633697021e-12</v>
+        <v>1.611408421396135e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>1.798819658424256e-11</v>
+        <v>4.028521053490339e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.005889426806872e-13</v>
+        <v>1.340734678257388e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.011778853613743e-13</v>
+        <v>2.681469356514775e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.002944713403437e-12</v>
+        <v>6.703673391286938e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>269248.2975980715</v>
+        <v>304112.3102332038</v>
       </c>
       <c r="R2" t="n">
-        <v>538496.5951961429</v>
+        <v>608224.6204664075</v>
       </c>
       <c r="S2" t="n">
-        <v>1346241.487990358</v>
+        <v>1520561.551166019</v>
       </c>
       <c r="T2" t="n">
-        <v>194230.7795752701</v>
+        <v>259701.3663334413</v>
       </c>
       <c r="U2" t="n">
-        <v>388461.5591505402</v>
+        <v>519402.7326668826</v>
       </c>
       <c r="V2" t="n">
-        <v>971153.8978763504</v>
+        <v>1298506.831667206</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +617,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.731149947452252e-08</v>
+        <v>0.0001960377456469266</v>
       </c>
       <c r="C3" t="n">
-        <v>9.462299894904505e-08</v>
+        <v>0.0003920754912938531</v>
       </c>
       <c r="D3" t="n">
-        <v>2.365574973726126e-07</v>
+        <v>0.0009801887282346329</v>
       </c>
       <c r="E3" t="n">
-        <v>5.890007692537229e-13</v>
+        <v>4.266830080509837e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178001538507446e-12</v>
+        <v>8.533660161019674e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.945003846268614e-12</v>
+        <v>2.133415040254918e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>4.436425126176229e-13</v>
+        <v>2.263854041890785e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>8.872850252352458e-13</v>
+        <v>4.527708083781571e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>2.218212563088114e-12</v>
+        <v>1.131927020945392e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>2.698229487636384e-12</v>
+        <v>6.042781580235506e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>5.396458975272768e-12</v>
+        <v>1.208556316047101e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>1.349114743818192e-11</v>
+        <v>3.021390790117753e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.004417070105154e-13</v>
+        <v>1.005551008693041e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>6.008834140210308e-13</v>
+        <v>2.011102017386082e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.502208535052577e-12</v>
+        <v>5.027755043465204e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>201936.2231985536</v>
+        <v>228084.2326749029</v>
       </c>
       <c r="R3" t="n">
-        <v>403872.4463971073</v>
+        <v>456168.4653498058</v>
       </c>
       <c r="S3" t="n">
-        <v>1009681.115992768</v>
+        <v>1140421.163374514</v>
       </c>
       <c r="T3" t="n">
-        <v>145673.0846814526</v>
+        <v>194776.024750081</v>
       </c>
       <c r="U3" t="n">
-        <v>291346.1693629051</v>
+        <v>389552.049500162</v>
       </c>
       <c r="V3" t="n">
-        <v>728365.4234072629</v>
+        <v>973880.1237504049</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +687,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.885249912420421e-08</v>
+        <v>0.000326729576078211</v>
       </c>
       <c r="C4" t="n">
-        <v>1.577049982484084e-07</v>
+        <v>0.0006534591521564219</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94262495621021e-07</v>
+        <v>0.001633647880391055</v>
       </c>
       <c r="E4" t="n">
-        <v>9.816679487562047e-13</v>
+        <v>7.111383467516394e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>1.963335897512409e-12</v>
+        <v>1.422276693503279e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.908339743781024e-12</v>
+        <v>3.555691733758197e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>7.394041876960383e-13</v>
+        <v>3.773090069817975e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.478808375392077e-12</v>
+        <v>7.546180139635951e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.697020938480192e-12</v>
+        <v>1.886545034908988e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>4.49704914606064e-12</v>
+        <v>1.007130263372585e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>8.994098292121279e-12</v>
+        <v>2.014260526745169e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>2.24852457303032e-11</v>
+        <v>5.035651316862923e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.007361783508591e-13</v>
+        <v>1.675918347821735e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>1.001472356701718e-12</v>
+        <v>3.351836695643469e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.503680891754295e-12</v>
+        <v>8.379591739108671e-08</v>
       </c>
       <c r="Q4" t="n">
-        <v>336560.3719975894</v>
+        <v>380140.3877915048</v>
       </c>
       <c r="R4" t="n">
-        <v>673120.7439951788</v>
+        <v>760280.7755830096</v>
       </c>
       <c r="S4" t="n">
-        <v>1682801.859987947</v>
+        <v>1900701.938957524</v>
       </c>
       <c r="T4" t="n">
-        <v>242788.4744690876</v>
+        <v>324626.7079168016</v>
       </c>
       <c r="U4" t="n">
-        <v>485576.9489381752</v>
+        <v>649253.4158336031</v>
       </c>
       <c r="V4" t="n">
-        <v>1213942.372345438</v>
+        <v>1623133.539584009</v>
       </c>
     </row>
   </sheetData>

--- a/output/risk/BRN_osm_tc_HadGEM3-GC31-HM_risk.xlsx
+++ b/output/risk/BRN_osm_tc_HadGEM3-GC31-HM_risk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,92 +451,197 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>W2_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>W2_2_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>W2_2_2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>W2_2_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>W2_3_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>W2_3_2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>W2_3_3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>W2_4_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>W2_4_2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>W2_4_3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_6</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W2_5_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W2_5_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W2_5_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>W2_6_1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>W2_6_2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>W2_6_3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_5</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_6</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W2_7_1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>W2_7_2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>W2_7_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_6</t>
         </is>
       </c>
     </row>
@@ -547,67 +652,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002613836608625687</v>
+        <v>306359.5486683853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005227673217251374</v>
+        <v>189262.121177358</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001306918304312844</v>
+        <v>102119.8495561284</v>
       </c>
       <c r="E2" t="n">
-        <v>5.689106774013116e-08</v>
+        <v>64335.50522036092</v>
       </c>
       <c r="F2" t="n">
-        <v>1.137821354802623e-07</v>
+        <v>54123.52026474806</v>
       </c>
       <c r="G2" t="n">
-        <v>2.844553387006558e-07</v>
+        <v>36422.74634168581</v>
       </c>
       <c r="H2" t="n">
-        <v>3.01847205585438e-08</v>
+        <v>236606.9025074384</v>
       </c>
       <c r="I2" t="n">
-        <v>6.03694411170876e-08</v>
+        <v>146170.4864379287</v>
       </c>
       <c r="J2" t="n">
-        <v>1.50923602792719e-07</v>
+        <v>78868.9675024795</v>
       </c>
       <c r="K2" t="n">
-        <v>8.057042106980676e-08</v>
+        <v>49687.44952656208</v>
       </c>
       <c r="L2" t="n">
-        <v>1.611408421396135e-07</v>
+        <v>41800.55277631413</v>
       </c>
       <c r="M2" t="n">
-        <v>4.028521053490339e-07</v>
+        <v>28129.93174255102</v>
       </c>
       <c r="N2" t="n">
-        <v>1.340734678257388e-08</v>
+        <v>160667.480356177</v>
       </c>
       <c r="O2" t="n">
-        <v>2.681469356514775e-08</v>
+        <v>99256.79897559375</v>
       </c>
       <c r="P2" t="n">
-        <v>6.703673391286938e-08</v>
+        <v>53555.82678539232</v>
       </c>
       <c r="Q2" t="n">
-        <v>304112.3102332038</v>
+        <v>33740.17087479717</v>
       </c>
       <c r="R2" t="n">
-        <v>608224.6204664075</v>
+        <v>28384.58819625793</v>
       </c>
       <c r="S2" t="n">
-        <v>1520561.551166019</v>
+        <v>19101.57822012326</v>
       </c>
       <c r="T2" t="n">
-        <v>259701.3663334413</v>
+        <v>109794.1035611943</v>
       </c>
       <c r="U2" t="n">
-        <v>519402.7326668826</v>
+        <v>67828.35731113784</v>
       </c>
       <c r="V2" t="n">
-        <v>1298506.831667206</v>
+        <v>36598.03452039811</v>
+      </c>
+      <c r="W2" t="n">
+        <v>23056.76174785081</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19396.958295811</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13053.298978942</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>88957.68212614479</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>54956.07918015168</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29652.56070871494</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>18681.11324649041</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15715.85717561892</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10576.07998610833</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>258464.0159384917</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>159673.3254020015</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>86154.67197949725</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>54277.44334708326</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>45661.97614913354</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>30728.49967268735</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>111470.8127480208</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>68864.1909865551</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>37156.93758267361</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23408.87067708438</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19693.17691881701</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>13252.64107115359</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +785,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001960377456469266</v>
+        <v>229769.6615012889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003920754912938531</v>
+        <v>141946.5908830185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009801887282346329</v>
+        <v>76589.88716709631</v>
       </c>
       <c r="E3" t="n">
-        <v>4.266830080509837e-08</v>
+        <v>48251.62891527068</v>
       </c>
       <c r="F3" t="n">
-        <v>8.533660161019674e-08</v>
+        <v>40592.64019856105</v>
       </c>
       <c r="G3" t="n">
-        <v>2.133415040254918e-07</v>
+        <v>27317.05975626435</v>
       </c>
       <c r="H3" t="n">
-        <v>2.263854041890785e-08</v>
+        <v>177455.1768805788</v>
       </c>
       <c r="I3" t="n">
-        <v>4.527708083781571e-08</v>
+        <v>109627.8648284465</v>
       </c>
       <c r="J3" t="n">
-        <v>1.131927020945392e-07</v>
+        <v>59151.72562685961</v>
       </c>
       <c r="K3" t="n">
-        <v>6.042781580235506e-08</v>
+        <v>37265.58714492156</v>
       </c>
       <c r="L3" t="n">
-        <v>1.208556316047101e-07</v>
+        <v>31350.4145822356</v>
       </c>
       <c r="M3" t="n">
-        <v>3.021390790117753e-07</v>
+        <v>21097.44880691326</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005551008693041e-08</v>
+        <v>120500.6102671327</v>
       </c>
       <c r="O3" t="n">
-        <v>2.011102017386082e-08</v>
+        <v>74442.59923169532</v>
       </c>
       <c r="P3" t="n">
-        <v>5.027755043465204e-08</v>
+        <v>40166.87008904424</v>
       </c>
       <c r="Q3" t="n">
-        <v>228084.2326749029</v>
+        <v>25305.12815609788</v>
       </c>
       <c r="R3" t="n">
-        <v>456168.4653498058</v>
+        <v>21288.44114719345</v>
       </c>
       <c r="S3" t="n">
-        <v>1140421.163374514</v>
+        <v>14326.18366509245</v>
       </c>
       <c r="T3" t="n">
-        <v>194776.024750081</v>
+        <v>82345.57767089574</v>
       </c>
       <c r="U3" t="n">
-        <v>389552.049500162</v>
+        <v>50871.26798335338</v>
       </c>
       <c r="V3" t="n">
-        <v>973880.1237504049</v>
+        <v>27448.52589029858</v>
+      </c>
+      <c r="W3" t="n">
+        <v>17292.57131088811</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14547.71872185825</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9789.974234206496</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>66718.2615946086</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41217.05938511377</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22239.4205315362</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>14010.83493486781</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11786.89288171419</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7932.059989581246</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>193848.0119538688</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>119754.9940515011</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>64616.00398462292</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40708.08251031244</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34246.48211185015</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>23046.37475451551</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>83603.10956101562</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51648.14323991632</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>27867.70318700521</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17556.65300781329</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>14769.88268911276</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>9939.480803365192</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +918,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000326729576078211</v>
+        <v>382949.4358354816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006534591521564219</v>
+        <v>236577.6514716976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001633647880391055</v>
+        <v>127649.8119451605</v>
       </c>
       <c r="E4" t="n">
-        <v>7.111383467516394e-08</v>
+        <v>80419.38152545113</v>
       </c>
       <c r="F4" t="n">
-        <v>1.422276693503279e-07</v>
+        <v>67654.40033093508</v>
       </c>
       <c r="G4" t="n">
-        <v>3.555691733758197e-07</v>
+        <v>45528.43292710725</v>
       </c>
       <c r="H4" t="n">
-        <v>3.773090069817975e-08</v>
+        <v>295758.6281342981</v>
       </c>
       <c r="I4" t="n">
-        <v>7.546180139635951e-08</v>
+        <v>182713.1080474108</v>
       </c>
       <c r="J4" t="n">
-        <v>1.886545034908988e-07</v>
+        <v>98586.20937809939</v>
       </c>
       <c r="K4" t="n">
-        <v>1.007130263372585e-07</v>
+        <v>62109.31190820259</v>
       </c>
       <c r="L4" t="n">
-        <v>2.014260526745169e-07</v>
+        <v>52250.69097039266</v>
       </c>
       <c r="M4" t="n">
-        <v>5.035651316862923e-07</v>
+        <v>35162.41467818877</v>
       </c>
       <c r="N4" t="n">
-        <v>1.675918347821735e-08</v>
+        <v>200834.3504452212</v>
       </c>
       <c r="O4" t="n">
-        <v>3.351836695643469e-08</v>
+        <v>124070.9987194922</v>
       </c>
       <c r="P4" t="n">
-        <v>8.379591739108671e-08</v>
+        <v>66944.78348174041</v>
       </c>
       <c r="Q4" t="n">
-        <v>380140.3877915048</v>
+        <v>42175.21359349645</v>
       </c>
       <c r="R4" t="n">
-        <v>760280.7755830096</v>
+        <v>35480.73524532241</v>
       </c>
       <c r="S4" t="n">
-        <v>1900701.938957524</v>
+        <v>23876.97277515407</v>
       </c>
       <c r="T4" t="n">
-        <v>324626.7079168016</v>
+        <v>137242.6294514929</v>
       </c>
       <c r="U4" t="n">
-        <v>649253.4158336031</v>
+        <v>84785.44663892229</v>
       </c>
       <c r="V4" t="n">
-        <v>1623133.539584009</v>
+        <v>45747.54315049765</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28820.95218481351</v>
+      </c>
+      <c r="X4" t="n">
+        <v>24246.19786976375</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16316.62372367749</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>111197.102657681</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>68695.09897518961</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>37065.70088589368</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>23351.39155811301</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>19644.82146952365</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13220.09998263541</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>323080.0199231146</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>199591.6567525019</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>107693.3399743715</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>67846.80418385407</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>57077.47018641691</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>38410.62459085918</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>139338.5159350261</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>86080.2387331939</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>46446.17197834201</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29261.08834635547</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>24616.47114852127</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>16565.80133894199</v>
       </c>
     </row>
   </sheetData>
